--- a/spreadsheet/macrofree/azure_arc_checklist.en.xlsx
+++ b/spreadsheet/macrofree/azure_arc_checklist.en.xlsx
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Has a tagging stratery for Azure Arc-enabled servers been defined</t>
+          <t>Has a tagging strategy for Azure Arc-enabled servers been defined</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aligning with an existing or creating an Azure tagging startegy is recommended. Resource tags allow you to quickly locate it, automate operational tasks amd more. </t>
+          <t xml:space="preserve">Aligning with an existing or creating an Azure tagging strategy is recommended. Resource tags allow you to quickly locate it, automate operational tasks amd more. </t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Define RBAC rules to the servers / resource groups as required for servers management, the 'Azure Connected Machine Resource Administrator' or 'Hybrid Server Resource Administrator' role would be sufficent for management of the Azure Arc-enabled servers resouces in Azure</t>
+          <t>Define RBAC rules to the servers / resource groups as required for servers management, the 'Azure Connected Machine Resource Administrator' or 'Hybrid Server Resource Administrator' role would be sufficient for management of the Azure Arc-enabled servers resources in Azure</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1688,12 +1688,12 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use the priciple of least priviledged</t>
+          <t>Use the principle of least privileged</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Ensure to only add the rights to users or groups that is required to perfor their role</t>
+          <t>Ensure to only add the rights to users or groups that is required to perform their role</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>How many Service Pricipals are needded for onboarding Arc-enabled servers into Azure</t>
+          <t>How many Service Principals are needed for onboarding Arc-enabled servers into Azure</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>A service priciple with the 'Azure Connected Machine Onboarding' role is required for at-scale onboarding of servers, consider more SP's if onboarding is done by different teams/decentralized management</t>
+          <t>A service principle with the 'Azure Connected Machine Onboarding' role is required for at-scale onboarding of servers, consider more SP's if onboarding is done by different teams/decentralized management</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Define a stretegy for agent provisioning</t>
+          <t>Define a strategy for agent provisioning</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
@@ -1888,12 +1888,12 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Define a stratery for agent updates</t>
+          <t>Define a strategy for agent updates</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Update to ensure that the connected machine agentis always up-to-date</t>
+          <t>Use Microsoft Update to ensure that the connected machine agent is always up-to-date</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Use automatic upgrades where avaliable and define an update strategy for all extensions not supporting automatic upgrades.</t>
+          <t>Use automatic upgrades where available and define an update strategy for all extensions not supporting automatic upgrades.</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for complienance and operational monitoring</t>
+          <t>Use Azure Monitor for compliance and operational monitoring</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Use Update Management in Azure Automation or the new Update Management Center (preview) fuctionality to ensure update management of servers</t>
+          <t>Use Update Management in Azure Automation or the new Update Management Center (preview) functionality to ensure update management of servers</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>The Connected Machine Agent will by default communicate with Azure services over public Interet connectivity using HTTPS (TCP port 443)</t>
+          <t>The Connected Machine Agent will by default communicate with Azure services over public Internet connectivity using HTTPS (TCP port 443)</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>The Connected Machine Agent can be configured to use a proxy server, it is recommended to define the proxy server adress using 'azcmagent config set proxy.url' command on the local system.</t>
+          <t>The Connected Machine Agent can be configured to use a proxy server, it is recommended to define the proxy server address using 'azcmagent config set proxy.url' command on the local system.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Can the Firewall or Proxy rules be automated updated if Service Tags or IP adresses change</t>
+          <t>Can the Firewall or Proxy rules be automated updated if Service Tags or IP addresses change</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Use avaliable automation tool for the system in question to requarly update the Azure endpoints</t>
+          <t>Use available automation tool for the system in question to regularly update the Azure endpoints</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Include communcation for Azure Arc-enabled Servers extentions in the design (firewall/proxy/private link)</t>
+          <t>Include communication for Azure Arc-enabled Servers extensions in the design (firewall/proxy/private link)</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>All extentions (like log analytics etc.) have separate network requirements, be sure to include all in the network design.</t>
+          <t>All extensions (like log analytics etc.) have separate network requirements, be sure to include all in the network design.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to implement a govnance model for hybrid connected servers</t>
+          <t>Use Azure Policy to implement a governance model for hybrid connected servers</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Cosider using change tracking for tracking changes made on the servers</t>
+          <t>Consider using change tracking for tracking changes made on the servers</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Ensure there is local administrator access for executeing the agent installation</t>
+          <t>Ensure there is local administrator access for executing the agent installation</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>Members of the local administrator group on Windows and users with root privileges on Linux, have permissions to manage the agent via commandline.</t>
+          <t>Members of the local administrator group on Windows and users with root privileges on Linux, have permissions to manage the agent via command line.</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Securtiy</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">

--- a/spreadsheet/macrofree/azure_arc_checklist.en.xlsx
+++ b/spreadsheet/macrofree/azure_arc_checklist.en.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -2038,12 +2003,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Automanage to control settings and avoid configuration drift on servers</t>
+          <t>Consider using Azure Machine Configuration to control settings and avoid configuration drift on servers</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Azure Automanage help implement Microsoft best-practices for servers management in Azure</t>
+          <t>Azure Machine Configuration to help implement Microsoft best-practices for servers management in Azure</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2059,7 +2024,7 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automanage/automanage-arc</t>
+          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
@@ -2318,7 +2283,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Use Update Management in Azure Automation or the new Update Management Center (preview) functionality to ensure update management of servers</t>
+          <t>Use Azure Update Manager to manage and schedule updates at scale across your Azure Arc-enabled servers</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2334,7 +2299,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/hybrid/server/best-practices/arc-update-management</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview%2Cwindows-maintenance</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -7193,20 +7158,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -7216,121 +7279,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
